--- a/Code/Results/Cases/Case_3_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20307782400046</v>
+        <v>16.46174698877879</v>
       </c>
       <c r="C2">
-        <v>6.626211710085517</v>
+        <v>7.56256815758016</v>
       </c>
       <c r="D2">
-        <v>3.891880930256978</v>
+        <v>6.922430688434947</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.60065087966695</v>
+        <v>46.113983916542</v>
       </c>
       <c r="G2">
-        <v>46.00261822790814</v>
+        <v>56.62322186534746</v>
       </c>
       <c r="H2">
-        <v>14.61949240503954</v>
+        <v>21.23646667299198</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.671373466903496</v>
+        <v>11.09443381621367</v>
       </c>
       <c r="K2">
-        <v>10.68146953764716</v>
+        <v>12.40524912010419</v>
       </c>
       <c r="L2">
-        <v>6.821382582131259</v>
+        <v>11.36053880536494</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.40825680181388</v>
+        <v>16.33619126908918</v>
       </c>
       <c r="C3">
-        <v>6.535755802291801</v>
+        <v>7.528117260735494</v>
       </c>
       <c r="D3">
-        <v>3.778718185838786</v>
+        <v>6.923021228606737</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.09411072579648</v>
+        <v>46.11006445916851</v>
       </c>
       <c r="G3">
-        <v>45.17141842025433</v>
+        <v>56.55961597645936</v>
       </c>
       <c r="H3">
-        <v>14.56189651010802</v>
+        <v>21.2637083512654</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.701960579058144</v>
+        <v>11.1140213616196</v>
       </c>
       <c r="K3">
-        <v>9.978369004477853</v>
+        <v>12.32273277723724</v>
       </c>
       <c r="L3">
-        <v>6.704202636309168</v>
+        <v>11.36869780997093</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.90356369846624</v>
+        <v>16.26266156905998</v>
       </c>
       <c r="C4">
-        <v>6.47925003322432</v>
+        <v>7.506309983433146</v>
       </c>
       <c r="D4">
-        <v>3.709106551161506</v>
+        <v>6.924382918595998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.80166493910227</v>
+        <v>46.11585245550614</v>
       </c>
       <c r="G4">
-        <v>44.68646834855137</v>
+        <v>56.5318498835216</v>
       </c>
       <c r="H4">
-        <v>14.53410102688037</v>
+        <v>21.28337192444215</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.722629153745465</v>
+        <v>11.12696104233393</v>
       </c>
       <c r="K4">
-        <v>9.522852901979139</v>
+        <v>12.27474126608153</v>
       </c>
       <c r="L4">
-        <v>6.634527929952022</v>
+        <v>11.37533001162381</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.69392049440701</v>
+        <v>16.23362360711646</v>
       </c>
       <c r="C5">
-        <v>6.455980353099622</v>
+        <v>7.49725983194435</v>
       </c>
       <c r="D5">
-        <v>3.680748037851267</v>
+        <v>6.925190022033284</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.68712598807647</v>
+        <v>46.12027240367318</v>
       </c>
       <c r="G5">
-        <v>44.49522936758735</v>
+        <v>56.52337799075548</v>
       </c>
       <c r="H5">
-        <v>14.52462046925302</v>
+        <v>21.29212311361967</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.731519606525106</v>
+        <v>11.13246400809068</v>
       </c>
       <c r="K5">
-        <v>9.331204401736432</v>
+        <v>12.25587559783505</v>
       </c>
       <c r="L5">
-        <v>6.60672748150559</v>
+        <v>11.37844134990504</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.65887643157346</v>
+        <v>16.22885865552789</v>
       </c>
       <c r="C6">
-        <v>6.452101761477716</v>
+        <v>7.495747215539879</v>
       </c>
       <c r="D6">
-        <v>3.676040912925013</v>
+        <v>6.92533930042119</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.66838561975653</v>
+        <v>46.1211308321632</v>
       </c>
       <c r="G6">
-        <v>44.46385923852868</v>
+        <v>56.52214304336728</v>
       </c>
       <c r="H6">
-        <v>14.52315607598425</v>
+        <v>21.29362080824618</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.733023921541211</v>
+        <v>11.13339167091281</v>
       </c>
       <c r="K6">
-        <v>9.299016683858857</v>
+        <v>12.25278524840441</v>
       </c>
       <c r="L6">
-        <v>6.602147615520428</v>
+        <v>11.37898268509551</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.90075215957591</v>
+        <v>16.26226616488623</v>
       </c>
       <c r="C7">
-        <v>6.478937194460964</v>
+        <v>7.506188590610738</v>
       </c>
       <c r="D7">
-        <v>3.70872400638521</v>
+        <v>6.924392781071659</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.80010151260324</v>
+        <v>46.11590371820606</v>
       </c>
       <c r="G7">
-        <v>44.68386341222961</v>
+        <v>56.53172411297117</v>
       </c>
       <c r="H7">
-        <v>14.53396576834414</v>
+        <v>21.28348695808412</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.72274716805229</v>
+        <v>11.12703432570588</v>
       </c>
       <c r="K7">
-        <v>9.520292688579294</v>
+        <v>12.27448401407493</v>
       </c>
       <c r="L7">
-        <v>6.63415057738109</v>
+        <v>11.37537031674994</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.93259824754556</v>
+        <v>16.41773474678078</v>
       </c>
       <c r="C8">
-        <v>6.595222413029102</v>
+        <v>7.550825887785667</v>
       </c>
       <c r="D8">
-        <v>3.852913227503302</v>
+        <v>6.922427548520198</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.42212279316833</v>
+        <v>46.11093238747118</v>
       </c>
       <c r="G8">
-        <v>45.71074606241932</v>
+        <v>56.59895097121743</v>
       </c>
       <c r="H8">
-        <v>14.59802830674556</v>
+        <v>21.2452497841993</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.681523778379949</v>
+        <v>11.10099837925801</v>
       </c>
       <c r="K8">
-        <v>10.44395949889316</v>
+        <v>12.3762542052473</v>
       </c>
       <c r="L8">
-        <v>6.780519507605081</v>
+        <v>11.36301569221146</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.81657360052469</v>
+        <v>16.74946504207943</v>
       </c>
       <c r="C9">
-        <v>6.81566899015772</v>
+        <v>7.633125890815204</v>
       </c>
       <c r="D9">
-        <v>4.132969094700792</v>
+        <v>6.926455987302252</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.79050358535893</v>
+        <v>46.16614060537584</v>
       </c>
       <c r="G9">
-        <v>47.92597400651344</v>
+        <v>56.82007255011887</v>
       </c>
       <c r="H9">
-        <v>14.7862558050833</v>
+        <v>21.193588051249</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.615996758573791</v>
+        <v>11.0571673045664</v>
       </c>
       <c r="K9">
-        <v>12.06819076073145</v>
+        <v>12.59615891188451</v>
       </c>
       <c r="L9">
-        <v>7.084673303324876</v>
+        <v>11.35163099881998</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.10880016566924</v>
+        <v>17.00758303488314</v>
       </c>
       <c r="C10">
-        <v>6.97319956856157</v>
+        <v>7.690348463876758</v>
       </c>
       <c r="D10">
-        <v>4.33506819405686</v>
+        <v>6.93415683102782</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.8879257157094</v>
+        <v>46.24616904561855</v>
       </c>
       <c r="G10">
-        <v>49.67607390978279</v>
+        <v>57.03647843685992</v>
       </c>
       <c r="H10">
-        <v>14.96622703151048</v>
+        <v>21.16986919021863</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.577682621210126</v>
+        <v>11.02934520948678</v>
       </c>
       <c r="K10">
-        <v>13.15036136392205</v>
+        <v>12.76887081832503</v>
       </c>
       <c r="L10">
-        <v>7.317374138497939</v>
+        <v>11.3510501139327</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.67591424079347</v>
+        <v>17.12769100841578</v>
       </c>
       <c r="C11">
-        <v>7.043971916382912</v>
+        <v>7.715665419824752</v>
       </c>
       <c r="D11">
-        <v>4.425858182977762</v>
+        <v>6.938674438912035</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.40746486130951</v>
+        <v>46.29109789072588</v>
       </c>
       <c r="G11">
-        <v>50.4988425768635</v>
+        <v>57.14649599244773</v>
       </c>
       <c r="H11">
-        <v>15.05791782426071</v>
+        <v>21.16217238834615</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.562506081435211</v>
+        <v>11.01763432141696</v>
       </c>
       <c r="K11">
-        <v>13.61924950086184</v>
+        <v>12.84958043644392</v>
       </c>
       <c r="L11">
-        <v>7.425006952507215</v>
+        <v>11.35246436605968</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.90119664074106</v>
+        <v>17.17352122973022</v>
       </c>
       <c r="C12">
-        <v>7.070651307617702</v>
+        <v>7.725148657150307</v>
       </c>
       <c r="D12">
-        <v>4.460048396030656</v>
+        <v>6.940529587412295</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.60714858683215</v>
+        <v>46.30933100482898</v>
       </c>
       <c r="G12">
-        <v>50.81424183334315</v>
+        <v>57.18980515703432</v>
       </c>
       <c r="H12">
-        <v>15.09411508434494</v>
+        <v>21.15970250236079</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.557093967747361</v>
+        <v>11.01333528250484</v>
       </c>
       <c r="K12">
-        <v>13.79350485765246</v>
+        <v>12.88042650867064</v>
       </c>
       <c r="L12">
-        <v>7.466002437921619</v>
+        <v>11.35324010437206</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.85076627032269</v>
+        <v>17.16363601732881</v>
       </c>
       <c r="C13">
-        <v>7.064910649852084</v>
+        <v>7.723110903570713</v>
       </c>
       <c r="D13">
-        <v>4.452693733241038</v>
+        <v>6.940123648417967</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.56401165516336</v>
+        <v>46.30535004682815</v>
       </c>
       <c r="G13">
-        <v>50.74614417148965</v>
+        <v>57.18040474423219</v>
       </c>
       <c r="H13">
-        <v>15.08625268003365</v>
+        <v>21.16021465932196</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.558244483886011</v>
+        <v>11.01425513117916</v>
       </c>
       <c r="K13">
-        <v>13.75612168374524</v>
+        <v>12.87377106590453</v>
       </c>
       <c r="L13">
-        <v>7.457163037313993</v>
+        <v>11.35306237243349</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.69339473638468</v>
+        <v>17.13145473821186</v>
       </c>
       <c r="C14">
-        <v>7.046169213976536</v>
+        <v>7.716447696848507</v>
       </c>
       <c r="D14">
-        <v>4.42867497110047</v>
+        <v>6.938824177117018</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.42383376405274</v>
+        <v>46.29257353745822</v>
       </c>
       <c r="G14">
-        <v>50.52471373014804</v>
+        <v>57.1500261378232</v>
       </c>
       <c r="H14">
-        <v>15.06086584324564</v>
+        <v>21.16196027710503</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.562054045485138</v>
+        <v>11.01727792083549</v>
       </c>
       <c r="K14">
-        <v>13.63365140627668</v>
+        <v>12.85211263208903</v>
       </c>
       <c r="L14">
-        <v>7.428375015940265</v>
+        <v>11.35252337980404</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.60186232493804</v>
+        <v>17.11178693172</v>
       </c>
       <c r="C15">
-        <v>7.034674089828521</v>
+        <v>7.712352747661158</v>
       </c>
       <c r="D15">
-        <v>4.413937359533639</v>
+        <v>6.938046977907344</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.33835519370378</v>
+        <v>46.28490617657785</v>
       </c>
       <c r="G15">
-        <v>50.38958096900528</v>
+        <v>57.13163245044019</v>
       </c>
       <c r="H15">
-        <v>15.04550980518751</v>
+        <v>21.1630874312132</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.564431467946694</v>
+        <v>11.01914711833702</v>
       </c>
       <c r="K15">
-        <v>13.55820667889941</v>
+        <v>12.8388823356633</v>
       </c>
       <c r="L15">
-        <v>7.410771923347948</v>
+        <v>11.35222447472643</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.07131747213788</v>
+        <v>16.99978450297815</v>
       </c>
       <c r="C16">
-        <v>6.968557121030894</v>
+        <v>7.688679482731884</v>
       </c>
       <c r="D16">
-        <v>4.329109556665981</v>
+        <v>6.93388188612285</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.85438332612001</v>
+        <v>46.24340385364151</v>
       </c>
       <c r="G16">
-        <v>49.62284007184086</v>
+        <v>57.02952006735156</v>
       </c>
       <c r="H16">
-        <v>14.96043785308675</v>
+        <v>21.17043443279079</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.578720693021739</v>
+        <v>11.03012954038472</v>
       </c>
       <c r="K16">
-        <v>13.11925280966509</v>
+        <v>12.76363723743088</v>
       </c>
       <c r="L16">
-        <v>7.310374219695588</v>
+        <v>11.35099136684501</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.74050551755319</v>
+        <v>16.93173591332103</v>
       </c>
       <c r="C17">
-        <v>6.927773416202601</v>
+        <v>7.673973080185878</v>
       </c>
       <c r="D17">
-        <v>4.276757840745019</v>
+        <v>6.931585557990429</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.56270081817241</v>
+        <v>46.22012255769442</v>
       </c>
       <c r="G17">
-        <v>49.15929039280451</v>
+        <v>56.96983068085055</v>
       </c>
       <c r="H17">
-        <v>14.91080917107836</v>
+        <v>21.17573378556052</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.58807119010682</v>
+        <v>11.03710882575043</v>
       </c>
       <c r="K17">
-        <v>12.84401896013828</v>
+        <v>12.71800784795778</v>
       </c>
       <c r="L17">
-        <v>7.249224785758305</v>
+        <v>11.35066399555579</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.54828072855128</v>
+        <v>16.89285159899267</v>
       </c>
       <c r="C18">
-        <v>6.904231481979759</v>
+        <v>7.665447217009731</v>
       </c>
       <c r="D18">
-        <v>4.246539933137889</v>
+        <v>6.930360347938668</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.39684328914099</v>
+        <v>46.20753447667496</v>
       </c>
       <c r="G18">
-        <v>48.89517532229334</v>
+        <v>56.93658937861409</v>
       </c>
       <c r="H18">
-        <v>14.88318457154361</v>
+        <v>21.17907297425825</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.59366068230106</v>
+        <v>11.04121214364716</v>
       </c>
       <c r="K18">
-        <v>12.68350551645881</v>
+        <v>12.69196617961607</v>
       </c>
       <c r="L18">
-        <v>7.214221379702396</v>
+        <v>11.35063376523717</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.48286312659204</v>
+        <v>16.87973108152103</v>
       </c>
       <c r="C19">
-        <v>6.896245928219165</v>
+        <v>7.662549010111388</v>
       </c>
       <c r="D19">
-        <v>4.236291191594884</v>
+        <v>6.929961971169391</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.34101429172977</v>
+        <v>46.2034104042604</v>
       </c>
       <c r="G19">
-        <v>48.80618111279531</v>
+        <v>56.92552219610972</v>
       </c>
       <c r="H19">
-        <v>14.8739875401368</v>
+        <v>21.18025356934134</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.595589164758973</v>
+        <v>11.04261675596827</v>
       </c>
       <c r="K19">
-        <v>12.62877769319461</v>
+        <v>12.68318456207243</v>
       </c>
       <c r="L19">
-        <v>7.202399292552456</v>
+        <v>11.35065071171447</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.77592320119395</v>
+        <v>16.93895364436861</v>
       </c>
       <c r="C20">
-        <v>6.932123581094437</v>
+        <v>7.675545557427937</v>
       </c>
       <c r="D20">
-        <v>4.282341995850415</v>
+        <v>6.931820124415148</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.5935530341501</v>
+        <v>46.222517855599</v>
       </c>
       <c r="G20">
-        <v>49.20837666238317</v>
+        <v>56.9760719718775</v>
       </c>
       <c r="H20">
-        <v>14.91599650409889</v>
+        <v>21.175139528297</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.587053864792932</v>
+        <v>11.03635665842734</v>
       </c>
       <c r="K20">
-        <v>12.87354597421351</v>
+        <v>12.72284432844691</v>
       </c>
       <c r="L20">
-        <v>7.255716984876051</v>
+        <v>11.3506824938441</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.73718047794818</v>
+        <v>17.14089802745399</v>
       </c>
       <c r="C21">
-        <v>7.051677232895402</v>
+        <v>7.718407666386205</v>
       </c>
       <c r="D21">
-        <v>4.435735202314217</v>
+        <v>6.939201955534431</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.46492723853125</v>
+        <v>46.29629326407009</v>
       </c>
       <c r="G21">
-        <v>50.58964903375374</v>
+        <v>57.15890448752096</v>
       </c>
       <c r="H21">
-        <v>15.06828199931917</v>
+        <v>21.16143547813351</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.56092590369536</v>
+        <v>11.01638637628447</v>
       </c>
       <c r="K21">
-        <v>13.66971300306415</v>
+        <v>12.85846675685418</v>
       </c>
       <c r="L21">
-        <v>7.43682444895062</v>
+        <v>11.35267518613163</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.41036580584989</v>
+        <v>17.27489022264071</v>
       </c>
       <c r="C22">
-        <v>7.129114450520599</v>
+        <v>7.745815335459932</v>
       </c>
       <c r="D22">
-        <v>4.534870094928838</v>
+        <v>6.944867520242489</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.0516067863382</v>
+        <v>46.35161457960321</v>
       </c>
       <c r="G22">
-        <v>51.51475647073278</v>
+        <v>57.28799235460696</v>
       </c>
       <c r="H22">
-        <v>15.17644328202235</v>
+        <v>21.15507117806309</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.545807631843163</v>
+        <v>11.00412498224423</v>
       </c>
       <c r="K22">
-        <v>14.17083759660285</v>
+        <v>12.94874210285156</v>
       </c>
       <c r="L22">
-        <v>7.556565012016389</v>
+        <v>11.35537693066937</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.05177491888944</v>
+        <v>17.20320504205378</v>
       </c>
       <c r="C23">
-        <v>7.087845728353638</v>
+        <v>7.731243078319733</v>
       </c>
       <c r="D23">
-        <v>4.482069453650482</v>
+        <v>6.941767239190963</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.73690224321735</v>
+        <v>46.32144075099253</v>
       </c>
       <c r="G23">
-        <v>51.01895680213207</v>
+        <v>57.21822359175511</v>
       </c>
       <c r="H23">
-        <v>15.1179040266044</v>
+        <v>21.15823079771623</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.553693536928728</v>
+        <v>11.01059691632402</v>
       </c>
       <c r="K23">
-        <v>13.90511450153507</v>
+        <v>12.90041888921451</v>
       </c>
       <c r="L23">
-        <v>7.492536642811835</v>
+        <v>11.35380732725588</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.7599172071556</v>
+        <v>16.93568976471537</v>
       </c>
       <c r="C24">
-        <v>6.930157167476331</v>
+        <v>7.674834861421067</v>
       </c>
       <c r="D24">
-        <v>4.279817771794435</v>
+        <v>6.931713780989758</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.57959903453641</v>
+        <v>46.22143245936492</v>
       </c>
       <c r="G24">
-        <v>49.18617732865538</v>
+        <v>56.97324693455504</v>
       </c>
       <c r="H24">
-        <v>14.91364848869495</v>
+        <v>21.17540728076159</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.587513132550566</v>
+        <v>11.03669643030517</v>
       </c>
       <c r="K24">
-        <v>12.86020391073611</v>
+        <v>12.7206571579091</v>
       </c>
       <c r="L24">
-        <v>7.252781386123234</v>
+        <v>11.35067363859227</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.32268546575101</v>
+        <v>16.65704755311648</v>
       </c>
       <c r="C25">
-        <v>6.756829167232199</v>
+        <v>7.61142732957915</v>
       </c>
       <c r="D25">
-        <v>4.057716131353507</v>
+        <v>6.924528639797403</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.40424591030247</v>
+        <v>46.1442609837455</v>
       </c>
       <c r="G25">
-        <v>47.30514254720152</v>
+        <v>56.75073616210804</v>
       </c>
       <c r="H25">
-        <v>14.72827143121774</v>
+        <v>21.20506471903314</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.632035535510418</v>
+        <v>11.06825375442079</v>
       </c>
       <c r="K25">
-        <v>11.64853928171067</v>
+        <v>12.53461747177074</v>
       </c>
       <c r="L25">
-        <v>7.000684513075907</v>
+        <v>11.35334031065788</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.46174698877879</v>
+        <v>14.20307782400046</v>
       </c>
       <c r="C2">
-        <v>7.56256815758016</v>
+        <v>6.626211710085532</v>
       </c>
       <c r="D2">
-        <v>6.922430688434947</v>
+        <v>3.89188093025704</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>46.113983916542</v>
+        <v>34.60065087966678</v>
       </c>
       <c r="G2">
-        <v>56.62322186534746</v>
+        <v>46.00261822790794</v>
       </c>
       <c r="H2">
-        <v>21.23646667299198</v>
+        <v>14.61949240503941</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.09443381621367</v>
+        <v>6.67137346690347</v>
       </c>
       <c r="K2">
-        <v>12.40524912010419</v>
+        <v>10.68146953764725</v>
       </c>
       <c r="L2">
-        <v>11.36053880536494</v>
+        <v>6.821382582131232</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.33619126908918</v>
+        <v>13.40825680181384</v>
       </c>
       <c r="C3">
-        <v>7.528117260735494</v>
+        <v>6.535755802291801</v>
       </c>
       <c r="D3">
-        <v>6.923021228606737</v>
+        <v>3.778718185838798</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>46.11006445916851</v>
+        <v>34.09411072579622</v>
       </c>
       <c r="G3">
-        <v>56.55961597645936</v>
+        <v>45.17141842025386</v>
       </c>
       <c r="H3">
-        <v>21.2637083512654</v>
+        <v>14.56189651010796</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.1140213616196</v>
+        <v>6.701960579058117</v>
       </c>
       <c r="K3">
-        <v>12.32273277723724</v>
+        <v>9.978369004477921</v>
       </c>
       <c r="L3">
-        <v>11.36869780997093</v>
+        <v>6.704202636309174</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.26266156905998</v>
+        <v>12.90356369846624</v>
       </c>
       <c r="C4">
-        <v>7.506309983433146</v>
+        <v>6.479250033223927</v>
       </c>
       <c r="D4">
-        <v>6.924382918595998</v>
+        <v>3.709106551161382</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>46.11585245550614</v>
+        <v>33.8016649391023</v>
       </c>
       <c r="G4">
-        <v>56.5318498835216</v>
+        <v>44.68646834855164</v>
       </c>
       <c r="H4">
-        <v>21.28337192444215</v>
+        <v>14.53410102688038</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.12696104233393</v>
+        <v>6.722629153745465</v>
       </c>
       <c r="K4">
-        <v>12.27474126608153</v>
+        <v>9.522852901979098</v>
       </c>
       <c r="L4">
-        <v>11.37533001162381</v>
+        <v>6.634527929951968</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.23362360711646</v>
+        <v>12.69392049440704</v>
       </c>
       <c r="C5">
-        <v>7.49725983194435</v>
+        <v>6.455980353099619</v>
       </c>
       <c r="D5">
-        <v>6.925190022033284</v>
+        <v>3.680748037851268</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>46.12027240367318</v>
+        <v>33.68712598807658</v>
       </c>
       <c r="G5">
-        <v>56.52337799075548</v>
+        <v>44.49522936758747</v>
       </c>
       <c r="H5">
-        <v>21.29212311361967</v>
+        <v>14.52462046925306</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.13246400809068</v>
+        <v>6.731519606525111</v>
       </c>
       <c r="K5">
-        <v>12.25587559783505</v>
+        <v>9.331204401736432</v>
       </c>
       <c r="L5">
-        <v>11.37844134990504</v>
+        <v>6.606727481505614</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.22885865552789</v>
+        <v>12.6588764315735</v>
       </c>
       <c r="C6">
-        <v>7.495747215539879</v>
+        <v>6.452101761477717</v>
       </c>
       <c r="D6">
-        <v>6.92533930042119</v>
+        <v>3.676040912924984</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>46.1211308321632</v>
+        <v>33.66838561975666</v>
       </c>
       <c r="G6">
-        <v>56.52214304336728</v>
+        <v>44.46385923852895</v>
       </c>
       <c r="H6">
-        <v>21.29362080824618</v>
+        <v>14.52315607598429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.13339167091281</v>
+        <v>6.733023921541369</v>
       </c>
       <c r="K6">
-        <v>12.25278524840441</v>
+        <v>9.299016683858822</v>
       </c>
       <c r="L6">
-        <v>11.37898268509551</v>
+        <v>6.602147615520576</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.26226616488623</v>
+        <v>12.90075215957586</v>
       </c>
       <c r="C7">
-        <v>7.506188590610738</v>
+        <v>6.478937194460823</v>
       </c>
       <c r="D7">
-        <v>6.924392781071659</v>
+        <v>3.70872400638532</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>46.11590371820606</v>
+        <v>33.80010151260316</v>
       </c>
       <c r="G7">
-        <v>56.53172411297117</v>
+        <v>44.68386341222931</v>
       </c>
       <c r="H7">
-        <v>21.28348695808412</v>
+        <v>14.53396576834415</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.12703432570588</v>
+        <v>6.722747168052229</v>
       </c>
       <c r="K7">
-        <v>12.27448401407493</v>
+        <v>9.520292688579369</v>
       </c>
       <c r="L7">
-        <v>11.37537031674994</v>
+        <v>6.634150577381163</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.41773474678078</v>
+        <v>13.93259824754561</v>
       </c>
       <c r="C8">
-        <v>7.550825887785667</v>
+        <v>6.595222413029239</v>
       </c>
       <c r="D8">
-        <v>6.922427548520198</v>
+        <v>3.852913227503224</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>46.11093238747118</v>
+        <v>34.42212279316841</v>
       </c>
       <c r="G8">
-        <v>56.59895097121743</v>
+        <v>45.71074606241938</v>
       </c>
       <c r="H8">
-        <v>21.2452497841993</v>
+        <v>14.59802830674569</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.10099837925801</v>
+        <v>6.681523778380127</v>
       </c>
       <c r="K8">
-        <v>12.3762542052473</v>
+        <v>10.44395949889311</v>
       </c>
       <c r="L8">
-        <v>11.36301569221146</v>
+        <v>6.780519507605105</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.74946504207943</v>
+        <v>15.81657360052466</v>
       </c>
       <c r="C9">
-        <v>7.633125890815204</v>
+        <v>6.815668990157453</v>
       </c>
       <c r="D9">
-        <v>6.926455987302252</v>
+        <v>4.132969094700617</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.16614060537584</v>
+        <v>35.79050358535871</v>
       </c>
       <c r="G9">
-        <v>56.82007255011887</v>
+        <v>47.92597400651349</v>
       </c>
       <c r="H9">
-        <v>21.193588051249</v>
+        <v>14.78625580508316</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.0571673045664</v>
+        <v>6.615996758573832</v>
       </c>
       <c r="K9">
-        <v>12.59615891188451</v>
+        <v>12.06819076073148</v>
       </c>
       <c r="L9">
-        <v>11.35163099881998</v>
+        <v>7.084673303324879</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.00758303488314</v>
+        <v>17.10880016566922</v>
       </c>
       <c r="C10">
-        <v>7.690348463876758</v>
+        <v>6.973199568561686</v>
       </c>
       <c r="D10">
-        <v>6.93415683102782</v>
+        <v>4.335068194056961</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.24616904561855</v>
+        <v>36.88792571570941</v>
       </c>
       <c r="G10">
-        <v>57.03647843685992</v>
+        <v>49.67607390978276</v>
       </c>
       <c r="H10">
-        <v>21.16986919021863</v>
+        <v>14.96622703151048</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.02934520948678</v>
+        <v>6.57768262120999</v>
       </c>
       <c r="K10">
-        <v>12.76887081832503</v>
+        <v>13.15036136392208</v>
       </c>
       <c r="L10">
-        <v>11.3510501139327</v>
+        <v>7.317374138497862</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.12769100841578</v>
+        <v>17.67591424079346</v>
       </c>
       <c r="C11">
-        <v>7.715665419824752</v>
+        <v>7.043971916383042</v>
       </c>
       <c r="D11">
-        <v>6.938674438912035</v>
+        <v>4.425858182977658</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.29109789072588</v>
+        <v>37.40746486130936</v>
       </c>
       <c r="G11">
-        <v>57.14649599244773</v>
+        <v>50.49884257686345</v>
       </c>
       <c r="H11">
-        <v>21.16217238834615</v>
+        <v>15.05791782426066</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.01763432141696</v>
+        <v>6.562506081435286</v>
       </c>
       <c r="K11">
-        <v>12.84958043644392</v>
+        <v>13.61924950086183</v>
       </c>
       <c r="L11">
-        <v>11.35246436605968</v>
+        <v>7.42500695250719</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.17352122973022</v>
+        <v>17.90119664074109</v>
       </c>
       <c r="C12">
-        <v>7.725148657150307</v>
+        <v>7.070651307618091</v>
       </c>
       <c r="D12">
-        <v>6.940529587412295</v>
+        <v>4.460048396030655</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.30933100482898</v>
+        <v>37.60714858683198</v>
       </c>
       <c r="G12">
-        <v>57.18980515703432</v>
+        <v>50.81424183334291</v>
       </c>
       <c r="H12">
-        <v>21.15970250236079</v>
+        <v>15.09411508434488</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.01333528250484</v>
+        <v>6.557093967747334</v>
       </c>
       <c r="K12">
-        <v>12.88042650867064</v>
+        <v>13.79350485765253</v>
       </c>
       <c r="L12">
-        <v>11.35324010437206</v>
+        <v>7.466002437921518</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.16363601732881</v>
+        <v>17.85076627032273</v>
       </c>
       <c r="C13">
-        <v>7.723110903570713</v>
+        <v>7.06491064985246</v>
       </c>
       <c r="D13">
-        <v>6.940123648417967</v>
+        <v>4.452693733241101</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.30535004682815</v>
+        <v>37.56401165516348</v>
       </c>
       <c r="G13">
-        <v>57.18040474423219</v>
+        <v>50.7461441714898</v>
       </c>
       <c r="H13">
-        <v>21.16021465932196</v>
+        <v>15.08625268003371</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.01425513117916</v>
+        <v>6.558244483885992</v>
       </c>
       <c r="K13">
-        <v>12.87377106590453</v>
+        <v>13.75612168374532</v>
       </c>
       <c r="L13">
-        <v>11.35306237243349</v>
+        <v>7.457163037313959</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.13145473821186</v>
+        <v>17.69339473638469</v>
       </c>
       <c r="C14">
-        <v>7.716447696848507</v>
+        <v>7.046169213976655</v>
       </c>
       <c r="D14">
-        <v>6.938824177117018</v>
+        <v>4.428674971100557</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.29257353745822</v>
+        <v>37.4238337640527</v>
       </c>
       <c r="G14">
-        <v>57.1500261378232</v>
+        <v>50.52471373014779</v>
       </c>
       <c r="H14">
-        <v>21.16196027710503</v>
+        <v>15.06086584324563</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.01727792083549</v>
+        <v>6.562054045485084</v>
       </c>
       <c r="K14">
-        <v>12.85211263208903</v>
+        <v>13.63365140627675</v>
       </c>
       <c r="L14">
-        <v>11.35252337980404</v>
+        <v>7.428375015940269</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.11178693172</v>
+        <v>17.60186232493805</v>
       </c>
       <c r="C15">
-        <v>7.712352747661158</v>
+        <v>7.034674089828783</v>
       </c>
       <c r="D15">
-        <v>6.938046977907344</v>
+        <v>4.413937359533645</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>46.28490617657785</v>
+        <v>37.3383551937038</v>
       </c>
       <c r="G15">
-        <v>57.13163245044019</v>
+        <v>50.38958096900521</v>
       </c>
       <c r="H15">
-        <v>21.1630874312132</v>
+        <v>15.04550980518756</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.01914711833702</v>
+        <v>6.564431467946743</v>
       </c>
       <c r="K15">
-        <v>12.8388823356633</v>
+        <v>13.5582066788994</v>
       </c>
       <c r="L15">
-        <v>11.35222447472643</v>
+        <v>7.410771923347916</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.99978450297815</v>
+        <v>17.07131747213789</v>
       </c>
       <c r="C16">
-        <v>7.688679482731884</v>
+        <v>6.968557121031019</v>
       </c>
       <c r="D16">
-        <v>6.93388188612285</v>
+        <v>4.329109556666022</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.24340385364151</v>
+        <v>36.85438332612009</v>
       </c>
       <c r="G16">
-        <v>57.02952006735156</v>
+        <v>49.62284007184102</v>
       </c>
       <c r="H16">
-        <v>21.17043443279079</v>
+        <v>14.96043785308679</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.03012954038472</v>
+        <v>6.578720693021688</v>
       </c>
       <c r="K16">
-        <v>12.76363723743088</v>
+        <v>13.1192528096651</v>
       </c>
       <c r="L16">
-        <v>11.35099136684501</v>
+        <v>7.310374219695566</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.93173591332103</v>
+        <v>16.74050551755317</v>
       </c>
       <c r="C17">
-        <v>7.673973080185878</v>
+        <v>6.927773416202361</v>
       </c>
       <c r="D17">
-        <v>6.931585557990429</v>
+        <v>4.276757840745169</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.22012255769442</v>
+        <v>36.56270081817239</v>
       </c>
       <c r="G17">
-        <v>56.96983068085055</v>
+        <v>49.15929039280434</v>
       </c>
       <c r="H17">
-        <v>21.17573378556052</v>
+        <v>14.91080917107834</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.03710882575043</v>
+        <v>6.588071190106786</v>
       </c>
       <c r="K17">
-        <v>12.71800784795778</v>
+        <v>12.84401896013829</v>
       </c>
       <c r="L17">
-        <v>11.35066399555579</v>
+        <v>7.249224785758404</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.89285159899267</v>
+        <v>16.54828072855129</v>
       </c>
       <c r="C18">
-        <v>7.665447217009731</v>
+        <v>6.904231481979882</v>
       </c>
       <c r="D18">
-        <v>6.930360347938668</v>
+        <v>4.246539933137833</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.20753447667496</v>
+        <v>36.39684328914096</v>
       </c>
       <c r="G18">
-        <v>56.93658937861409</v>
+        <v>48.89517532229329</v>
       </c>
       <c r="H18">
-        <v>21.17907297425825</v>
+        <v>14.88318457154358</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.04121214364716</v>
+        <v>6.593660682301093</v>
       </c>
       <c r="K18">
-        <v>12.69196617961607</v>
+        <v>12.68350551645882</v>
       </c>
       <c r="L18">
-        <v>11.35063376523717</v>
+        <v>7.214221379702342</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.87973108152103</v>
+        <v>16.48286312659201</v>
       </c>
       <c r="C19">
-        <v>7.662549010111388</v>
+        <v>6.896245928218907</v>
       </c>
       <c r="D19">
-        <v>6.929961971169391</v>
+        <v>4.236291191594767</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.2034104042604</v>
+        <v>36.34101429172959</v>
       </c>
       <c r="G19">
-        <v>56.92552219610972</v>
+        <v>48.80618111279513</v>
       </c>
       <c r="H19">
-        <v>21.18025356934134</v>
+        <v>14.87398754013676</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.04261675596827</v>
+        <v>6.595589164758914</v>
       </c>
       <c r="K19">
-        <v>12.68318456207243</v>
+        <v>12.62877769319467</v>
       </c>
       <c r="L19">
-        <v>11.35065071171447</v>
+        <v>7.202399292552403</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.93895364436861</v>
+        <v>16.77592320119396</v>
       </c>
       <c r="C20">
-        <v>7.675545557427937</v>
+        <v>6.932123581094421</v>
       </c>
       <c r="D20">
-        <v>6.931820124415148</v>
+        <v>4.282341995850387</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.222517855599</v>
+        <v>36.59355303415017</v>
       </c>
       <c r="G20">
-        <v>56.9760719718775</v>
+        <v>49.20837666238322</v>
       </c>
       <c r="H20">
-        <v>21.175139528297</v>
+        <v>14.91599650409894</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.03635665842734</v>
+        <v>6.587053864792973</v>
       </c>
       <c r="K20">
-        <v>12.72284432844691</v>
+        <v>12.87354597421352</v>
       </c>
       <c r="L20">
-        <v>11.3506824938441</v>
+        <v>7.255716984876083</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.14089802745399</v>
+        <v>17.73718047794818</v>
       </c>
       <c r="C21">
-        <v>7.718407666386205</v>
+        <v>7.051677232895913</v>
       </c>
       <c r="D21">
-        <v>6.939201955534431</v>
+        <v>4.435735202314233</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.29629326407009</v>
+        <v>37.46492723853121</v>
       </c>
       <c r="G21">
-        <v>57.15890448752096</v>
+        <v>50.58964903375362</v>
       </c>
       <c r="H21">
-        <v>21.16143547813351</v>
+        <v>15.06828199931918</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.01638637628447</v>
+        <v>6.560925903695365</v>
       </c>
       <c r="K21">
-        <v>12.85846675685418</v>
+        <v>13.66971300306415</v>
       </c>
       <c r="L21">
-        <v>11.35267518613163</v>
+        <v>7.43682444895054</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.27489022264071</v>
+        <v>18.41036580584992</v>
       </c>
       <c r="C22">
-        <v>7.745815335459932</v>
+        <v>7.129114450520479</v>
       </c>
       <c r="D22">
-        <v>6.944867520242489</v>
+        <v>4.53487009492874</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.35161457960321</v>
+        <v>38.05160678633816</v>
       </c>
       <c r="G22">
-        <v>57.28799235460696</v>
+        <v>51.51475647073261</v>
       </c>
       <c r="H22">
-        <v>21.15507117806309</v>
+        <v>15.17644328202241</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.00412498224423</v>
+        <v>6.545807631843112</v>
       </c>
       <c r="K22">
-        <v>12.94874210285156</v>
+        <v>14.17083759660287</v>
       </c>
       <c r="L22">
-        <v>11.35537693066937</v>
+        <v>7.556565012016321</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.20320504205378</v>
+        <v>18.05177491888942</v>
       </c>
       <c r="C23">
-        <v>7.731243078319733</v>
+        <v>7.087845728354027</v>
       </c>
       <c r="D23">
-        <v>6.941767239190963</v>
+        <v>4.48206945365058</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.32144075099253</v>
+        <v>37.73690224321727</v>
       </c>
       <c r="G23">
-        <v>57.21822359175511</v>
+        <v>51.01895680213184</v>
       </c>
       <c r="H23">
-        <v>21.15823079771623</v>
+        <v>15.11790402660436</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.01059691632402</v>
+        <v>6.55369353692872</v>
       </c>
       <c r="K23">
-        <v>12.90041888921451</v>
+        <v>13.90511450153507</v>
       </c>
       <c r="L23">
-        <v>11.35380732725588</v>
+        <v>7.492536642811849</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.93568976471537</v>
+        <v>16.75991720715558</v>
       </c>
       <c r="C24">
-        <v>7.674834861421067</v>
+        <v>6.930157167476324</v>
       </c>
       <c r="D24">
-        <v>6.931713780989758</v>
+        <v>4.279817771794512</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.22143245936492</v>
+        <v>36.57959903453632</v>
       </c>
       <c r="G24">
-        <v>56.97324693455504</v>
+        <v>49.18617732865512</v>
       </c>
       <c r="H24">
-        <v>21.17540728076159</v>
+        <v>14.91364848869483</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.03669643030517</v>
+        <v>6.58751313255046</v>
       </c>
       <c r="K24">
-        <v>12.7206571579091</v>
+        <v>12.86020391073618</v>
       </c>
       <c r="L24">
-        <v>11.35067363859227</v>
+        <v>7.252781386123237</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.65704755311648</v>
+        <v>15.32268546575103</v>
       </c>
       <c r="C25">
-        <v>7.61142732957915</v>
+        <v>6.756829167232077</v>
       </c>
       <c r="D25">
-        <v>6.924528639797403</v>
+        <v>4.057716131353508</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.1442609837455</v>
+        <v>35.40424591030251</v>
       </c>
       <c r="G25">
-        <v>56.75073616210804</v>
+        <v>47.3051425472016</v>
       </c>
       <c r="H25">
-        <v>21.20506471903314</v>
+        <v>14.72827143121773</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.06825375442079</v>
+        <v>6.632035535510383</v>
       </c>
       <c r="K25">
-        <v>12.53461747177074</v>
+        <v>11.64853928171071</v>
       </c>
       <c r="L25">
-        <v>11.35334031065788</v>
+        <v>7.000684513075911</v>
       </c>
       <c r="M25">
         <v>0</v>
